--- a/Database_components/RW.xlsx
+++ b/Database_components/RW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cpelleray2\Documents\GitHub\SSR\Database_components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37722BF2-88BF-4B2C-AA8B-20EB00ABCC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A22E2E8-8FE9-4AD7-A18B-A7CD3BAEE226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B5EB6FAB-4B6E-45F3-9EF7-870E00CA0D34}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B5EB6FAB-4B6E-45F3-9EF7-870E00CA0D34}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
     <col min="5" max="5" width="17.21875" customWidth="1"/>
     <col min="6" max="6" width="14.21875" customWidth="1"/>
     <col min="7" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
